--- a/Completed Projects/UEP 17th Floor/Variation/03- variation order for Control logic for WCPU (for CCTV Room).xlsx
+++ b/Completed Projects/UEP 17th Floor/Variation/03- variation order for Control logic for WCPU (for CCTV Room).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A56F9F-F391-49D7-A9F0-B2AC2804F08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAE52C3-3663-4934-BA35-43AF741DF4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,14 +62,14 @@
     <t>Variation order</t>
   </si>
   <si>
-    <t>Attn: Mr. Adeel</t>
-  </si>
-  <si>
     <t>M/S United Energy Pakistan Ltd.</t>
   </si>
   <si>
     <t>Supply and installation of control logic with pressure Sensor for WCPU including control wiring.
 (for CCTV Room)</t>
+  </si>
+  <si>
+    <t>Attn: Mr. Adeel Naved</t>
   </si>
 </sst>
 </file>
@@ -892,7 +892,7 @@
   <dimension ref="A12:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +911,7 @@
   <sheetData>
     <row r="12" spans="1:6" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="19"/>
@@ -954,7 +954,7 @@
     <row r="18" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>7</v>
